--- a/���c�۵�/�۵���/111�~/111���c�۵���-����1111027.xlsx
+++ b/���c�۵�/�۵���/111�~/111���c�۵���-����1111027.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\一般文件\機構自評\111年度機構自評\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bill.liu\Desktop\Project\web\ReviewWebsite\���c�۵�\�۵���\111�~\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0E6FE7C-C292-47AC-93EA-2970F4F96BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="15330" windowHeight="5010"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">工作表1!$A$1:$K$70</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">工作表1!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="232">
   <si>
     <t>查核指標</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1339,12 +1338,24 @@
     <t>執行長、研發及推廣督導</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>台中至德分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄至德分數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>執行長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1700,7 +1711,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1791,23 +1802,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1843,23 +1837,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2035,34 +2012,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="O62" sqref="O62"/>
+      <selection pane="bottomRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="25.15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="42.77734375" style="6" customWidth="1"/>
-    <col min="3" max="5" width="7.88671875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="39.33203125" style="6" customWidth="1"/>
-    <col min="8" max="10" width="12.44140625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="15.109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="8.77734375" style="42"/>
-    <col min="13" max="18" width="8.77734375" style="29"/>
-    <col min="19" max="16384" width="8.77734375" style="30"/>
+    <col min="1" max="1" width="20.75" style="6" customWidth="1"/>
+    <col min="2" max="2" width="42.75" style="6" customWidth="1"/>
+    <col min="3" max="5" width="7.875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="17.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="6" customWidth="1"/>
+    <col min="8" max="10" width="12.5" style="6" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="9" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="42"/>
+    <col min="13" max="18" width="8.75" style="29"/>
+    <col min="19" max="16384" width="8.75" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="31.5">
       <c r="A1" s="7" t="s">
         <v>140</v>
       </c>
@@ -2073,10 +2050,10 @@
         <v>55</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>56</v>
+        <v>229</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>57</v>
+        <v>230</v>
       </c>
       <c r="F1" s="7" t="s">
         <v>11</v>
@@ -2100,7 +2077,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="30" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>144</v>
       </c>
@@ -2113,7 +2090,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="45"/>
     </row>
-    <row r="3" spans="1:12" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" s="4" customFormat="1" ht="78.75">
       <c r="A3" s="28" t="s">
         <v>172</v>
       </c>
@@ -2145,7 +2122,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" s="4" customFormat="1" ht="78" customHeight="1">
       <c r="A4" s="28" t="s">
         <v>173</v>
       </c>
@@ -2177,7 +2154,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="4" customFormat="1" ht="171.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="173.25">
       <c r="A5" s="28" t="s">
         <v>174</v>
       </c>
@@ -2209,7 +2186,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" s="4" customFormat="1" ht="94.5">
       <c r="A6" s="28" t="s">
         <v>175</v>
       </c>
@@ -2241,7 +2218,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" s="4" customFormat="1" ht="78.75">
       <c r="A7" s="28" t="s">
         <v>176</v>
       </c>
@@ -2273,7 +2250,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" s="4" customFormat="1" ht="94.5">
       <c r="A8" s="28" t="s">
         <v>177</v>
       </c>
@@ -2305,7 +2282,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" s="4" customFormat="1" ht="94.5">
       <c r="A9" s="28" t="s">
         <v>178</v>
       </c>
@@ -2337,7 +2314,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" s="4" customFormat="1" ht="78.75">
       <c r="A10" s="28" t="s">
         <v>179</v>
       </c>
@@ -2366,10 +2343,10 @@
         <v>50</v>
       </c>
       <c r="L10" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="4" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="4" customFormat="1" ht="82.15" customHeight="1">
       <c r="A11" s="28" t="s">
         <v>180</v>
       </c>
@@ -2401,7 +2378,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" s="4" customFormat="1" ht="82.15" customHeight="1">
       <c r="A12" s="28" t="s">
         <v>181</v>
       </c>
@@ -2431,7 +2408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" s="4" customFormat="1" ht="82.15" customHeight="1">
       <c r="A13" s="28" t="s">
         <v>182</v>
       </c>
@@ -2461,7 +2438,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="4" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" s="4" customFormat="1" ht="78.75">
       <c r="A14" s="28" t="s">
         <v>183</v>
       </c>
@@ -2493,7 +2470,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" s="4" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="33"/>
       <c r="B15" s="34"/>
       <c r="C15" s="35">
@@ -2515,7 +2492,7 @@
       <c r="J15" s="16"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="30" customHeight="1">
       <c r="A16" s="27" t="s">
         <v>125</v>
       </c>
@@ -2530,7 +2507,7 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
     </row>
-    <row r="17" spans="1:18" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" ht="31.9" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>135</v>
       </c>
@@ -2568,7 +2545,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="4" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="4" customFormat="1" ht="84" customHeight="1">
       <c r="A18" s="18" t="s">
         <v>59</v>
       </c>
@@ -2598,7 +2575,7 @@
       </c>
       <c r="L18" s="44"/>
     </row>
-    <row r="19" spans="1:18" s="5" customFormat="1" ht="173.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="5" customFormat="1" ht="173.45" customHeight="1">
       <c r="A19" s="18" t="s">
         <v>120</v>
       </c>
@@ -2630,7 +2607,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="5" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="5" customFormat="1" ht="86.25" customHeight="1">
       <c r="A20" s="18" t="s">
         <v>60</v>
       </c>
@@ -2662,7 +2639,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="5" customFormat="1" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="5" customFormat="1" ht="95.45" customHeight="1">
       <c r="A21" s="18" t="s">
         <v>108</v>
       </c>
@@ -2694,7 +2671,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="1" customFormat="1" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="1" customFormat="1" ht="87.75" customHeight="1">
       <c r="A22" s="18" t="s">
         <v>61</v>
       </c>
@@ -2732,7 +2709,7 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" s="1" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="1" customFormat="1" ht="72.75" customHeight="1">
       <c r="A23" s="18" t="s">
         <v>131</v>
       </c>
@@ -2770,7 +2747,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="1" customFormat="1" ht="45" customHeight="1">
       <c r="A24" s="18" t="s">
         <v>62</v>
       </c>
@@ -2808,7 +2785,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="1" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="15">
@@ -2837,7 +2814,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" ht="30" customHeight="1">
       <c r="A26" s="38" t="s">
         <v>126</v>
       </c>
@@ -2852,7 +2829,7 @@
       <c r="J26" s="14"/>
       <c r="K26" s="14"/>
     </row>
-    <row r="27" spans="1:18" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" ht="31.9" customHeight="1">
       <c r="A27" s="7" t="s">
         <v>0</v>
       </c>
@@ -2890,7 +2867,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="3" customFormat="1" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" s="3" customFormat="1" ht="174" customHeight="1">
       <c r="A28" s="21" t="s">
         <v>63</v>
       </c>
@@ -2928,7 +2905,7 @@
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
     </row>
-    <row r="29" spans="1:18" s="3" customFormat="1" ht="64.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" s="3" customFormat="1" ht="64.5" customHeight="1">
       <c r="A29" s="21" t="s">
         <v>64</v>
       </c>
@@ -2966,7 +2943,7 @@
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
     </row>
-    <row r="30" spans="1:18" s="3" customFormat="1" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" s="3" customFormat="1" ht="117.6" customHeight="1">
       <c r="A30" s="21" t="s">
         <v>65</v>
       </c>
@@ -3004,7 +2981,7 @@
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
     </row>
-    <row r="31" spans="1:18" s="3" customFormat="1" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" s="3" customFormat="1" ht="101.45" customHeight="1">
       <c r="A31" s="21" t="s">
         <v>66</v>
       </c>
@@ -3042,7 +3019,7 @@
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
     </row>
-    <row r="32" spans="1:18" s="3" customFormat="1" ht="129.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" s="3" customFormat="1" ht="129.6" customHeight="1">
       <c r="A32" s="21" t="s">
         <v>67</v>
       </c>
@@ -3080,7 +3057,7 @@
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
     </row>
-    <row r="33" spans="1:18" s="3" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:18" s="3" customFormat="1" ht="99" customHeight="1">
       <c r="A33" s="21" t="s">
         <v>68</v>
       </c>
@@ -3118,7 +3095,7 @@
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
     </row>
-    <row r="34" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:18" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="15">
@@ -3147,7 +3124,7 @@
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="30" customHeight="1">
       <c r="A35" s="37" t="s">
         <v>136</v>
       </c>
@@ -3162,7 +3139,7 @@
       <c r="J35" s="14"/>
       <c r="K35" s="14"/>
     </row>
-    <row r="36" spans="1:18" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="31.9" customHeight="1">
       <c r="A36" s="7" t="s">
         <v>0</v>
       </c>
@@ -3200,7 +3177,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="2" customFormat="1" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:18" s="2" customFormat="1" ht="91.9" customHeight="1">
       <c r="A37" s="18" t="s">
         <v>69</v>
       </c>
@@ -3238,7 +3215,7 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
     </row>
-    <row r="38" spans="1:18" s="2" customFormat="1" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:18" s="2" customFormat="1" ht="103.15" customHeight="1">
       <c r="A38" s="18" t="s">
         <v>70</v>
       </c>
@@ -3276,7 +3253,7 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="12"/>
     </row>
-    <row r="39" spans="1:18" s="2" customFormat="1" ht="140.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:18" s="2" customFormat="1" ht="141.75">
       <c r="A39" s="18" t="s">
         <v>153</v>
       </c>
@@ -3314,7 +3291,7 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
     </row>
-    <row r="40" spans="1:18" s="2" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:18" s="2" customFormat="1" ht="84" customHeight="1">
       <c r="A40" s="18" t="s">
         <v>130</v>
       </c>
@@ -3352,7 +3329,7 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
     </row>
-    <row r="41" spans="1:18" s="2" customFormat="1" ht="136.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:18" s="2" customFormat="1" ht="136.15" customHeight="1">
       <c r="A41" s="18" t="s">
         <v>71</v>
       </c>
@@ -3390,7 +3367,7 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
     </row>
-    <row r="42" spans="1:18" s="2" customFormat="1" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:18" s="2" customFormat="1" ht="146.25" customHeight="1">
       <c r="A42" s="18" t="s">
         <v>72</v>
       </c>
@@ -3428,7 +3405,7 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
     </row>
-    <row r="43" spans="1:18" s="2" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:18" s="2" customFormat="1" ht="107.25" customHeight="1">
       <c r="A43" s="18" t="s">
         <v>73</v>
       </c>
@@ -3466,7 +3443,7 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="12"/>
     </row>
-    <row r="44" spans="1:18" s="2" customFormat="1" ht="103.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="2" customFormat="1" ht="103.9" customHeight="1">
       <c r="A44" s="18" t="s">
         <v>74</v>
       </c>
@@ -3504,7 +3481,7 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
     </row>
-    <row r="45" spans="1:18" s="8" customFormat="1" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:18" s="8" customFormat="1" ht="99" customHeight="1">
       <c r="A45" s="18" t="s">
         <v>75</v>
       </c>
@@ -3542,7 +3519,7 @@
       <c r="Q45" s="13"/>
       <c r="R45" s="13"/>
     </row>
-    <row r="46" spans="1:18" s="8" customFormat="1" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:18" s="8" customFormat="1" ht="88.9" customHeight="1">
       <c r="A46" s="18" t="s">
         <v>76</v>
       </c>
@@ -3580,7 +3557,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="1:18" s="8" customFormat="1" ht="130.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:18" s="8" customFormat="1" ht="130.9" customHeight="1">
       <c r="A47" s="18" t="s">
         <v>77</v>
       </c>
@@ -3618,7 +3595,7 @@
       <c r="Q47" s="13"/>
       <c r="R47" s="13"/>
     </row>
-    <row r="48" spans="1:18" s="2" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:18" s="2" customFormat="1" ht="77.25" customHeight="1">
       <c r="A48" s="18" t="s">
         <v>78</v>
       </c>
@@ -3656,7 +3633,7 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
     </row>
-    <row r="49" spans="1:18" s="2" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:18" s="2" customFormat="1" ht="102.75" customHeight="1">
       <c r="A49" s="18" t="s">
         <v>79</v>
       </c>
@@ -3694,7 +3671,7 @@
       <c r="Q49" s="12"/>
       <c r="R49" s="12"/>
     </row>
-    <row r="50" spans="1:18" s="2" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:18" s="2" customFormat="1" ht="87" customHeight="1">
       <c r="A50" s="18" t="s">
         <v>80</v>
       </c>
@@ -3732,7 +3709,7 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
     </row>
-    <row r="51" spans="1:18" s="2" customFormat="1" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:18" s="2" customFormat="1" ht="132" customHeight="1">
       <c r="A51" s="18" t="s">
         <v>81</v>
       </c>
@@ -3770,7 +3747,7 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
     </row>
-    <row r="52" spans="1:18" s="2" customFormat="1" ht="176.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:18" s="2" customFormat="1" ht="176.45" customHeight="1">
       <c r="A52" s="18" t="s">
         <v>127</v>
       </c>
@@ -3808,7 +3785,7 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="12"/>
     </row>
-    <row r="53" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" ht="60" customHeight="1">
       <c r="A53" s="25" t="s">
         <v>128</v>
       </c>
@@ -3846,7 +3823,7 @@
       <c r="Q53" s="30"/>
       <c r="R53" s="30"/>
     </row>
-    <row r="54" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="2" customFormat="1" ht="30" customHeight="1">
       <c r="A54" s="16"/>
       <c r="B54" s="16"/>
       <c r="C54" s="15">
@@ -3875,7 +3852,7 @@
       <c r="Q54" s="12"/>
       <c r="R54" s="12"/>
     </row>
-    <row r="55" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" ht="30" customHeight="1">
       <c r="A55" s="37" t="s">
         <v>129</v>
       </c>
@@ -3890,7 +3867,7 @@
       <c r="J55" s="14"/>
       <c r="K55" s="14"/>
     </row>
-    <row r="56" spans="1:18" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="32" customFormat="1" ht="30" customHeight="1">
       <c r="A56" s="7" t="s">
         <v>22</v>
       </c>
@@ -3934,7 +3911,7 @@
       <c r="Q56" s="31"/>
       <c r="R56" s="31"/>
     </row>
-    <row r="57" spans="1:18" s="32" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:18" s="32" customFormat="1" ht="47.25">
       <c r="A57" s="18" t="s">
         <v>138</v>
       </c>
@@ -3972,7 +3949,7 @@
       <c r="Q57" s="31"/>
       <c r="R57" s="31"/>
     </row>
-    <row r="58" spans="1:18" s="32" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:18" s="32" customFormat="1" ht="47.25">
       <c r="A58" s="18" t="s">
         <v>82</v>
       </c>
@@ -4004,7 +3981,7 @@
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
     </row>
-    <row r="59" spans="1:18" s="32" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:18" s="32" customFormat="1" ht="63">
       <c r="A59" s="18" t="s">
         <v>124</v>
       </c>
@@ -4038,7 +4015,7 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
     </row>
-    <row r="60" spans="1:18" s="32" customFormat="1" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:18" s="32" customFormat="1" ht="126">
       <c r="A60" s="18" t="s">
         <v>214</v>
       </c>
@@ -4074,7 +4051,7 @@
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
     </row>
-    <row r="61" spans="1:18" s="32" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:18" s="32" customFormat="1" ht="63">
       <c r="A61" s="18" t="s">
         <v>139</v>
       </c>
@@ -4110,7 +4087,7 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
     </row>
-    <row r="62" spans="1:18" s="32" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:18" s="32" customFormat="1" ht="78" customHeight="1">
       <c r="A62" s="18" t="s">
         <v>83</v>
       </c>
@@ -4148,7 +4125,7 @@
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
     </row>
-    <row r="63" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:18" s="32" customFormat="1" ht="50.25" customHeight="1">
       <c r="A63" s="18" t="s">
         <v>84</v>
       </c>
@@ -4186,7 +4163,7 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
     </row>
-    <row r="64" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A64" s="14"/>
       <c r="B64" s="15" t="s">
         <v>86</v>
@@ -4212,7 +4189,7 @@
       <c r="J64" s="24"/>
       <c r="K64" s="14"/>
     </row>
-    <row r="65" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:18" ht="30" customHeight="1">
       <c r="A65" s="14"/>
       <c r="B65" s="14"/>
       <c r="C65" s="15">
@@ -4234,7 +4211,7 @@
       <c r="J65" s="14"/>
       <c r="K65" s="14"/>
     </row>
-    <row r="66" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:18" ht="30" customHeight="1">
       <c r="A66" s="14" t="s">
         <v>58</v>
       </c>
@@ -4249,7 +4226,7 @@
       <c r="J66" s="14"/>
       <c r="K66" s="14"/>
     </row>
-    <row r="67" spans="1:18" s="32" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:18" s="32" customFormat="1" ht="39.75" customHeight="1">
       <c r="A67" s="7" t="s">
         <v>22</v>
       </c>
@@ -4291,7 +4268,7 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
     </row>
-    <row r="68" spans="1:18" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:18" ht="43.5" customHeight="1">
       <c r="A68" s="20" t="s">
         <v>85</v>
       </c>
@@ -4320,7 +4297,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A69" s="14"/>
       <c r="B69" s="14"/>
       <c r="C69" s="15"/>
@@ -4344,7 +4321,7 @@
       </c>
       <c r="K69" s="14"/>
     </row>
-    <row r="70" spans="1:18" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:18" ht="30" customHeight="1" thickBot="1">
       <c r="A70" s="14"/>
       <c r="B70" s="14"/>
       <c r="C70" s="15"/>
@@ -4357,7 +4334,7 @@
       <c r="J70" s="24"/>
       <c r="K70" s="14"/>
     </row>
-    <row r="71" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:18" ht="30" customHeight="1">
       <c r="A71" s="14"/>
       <c r="B71" s="14"/>
       <c r="C71" s="15"/>
@@ -4370,7 +4347,7 @@
       <c r="J71" s="14"/>
       <c r="K71" s="14"/>
     </row>
-    <row r="72" spans="1:18" s="29" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:18" s="29" customFormat="1" ht="30" customHeight="1">
       <c r="A72" s="50" t="s">
         <v>184</v>
       </c>
@@ -4386,7 +4363,7 @@
       <c r="K72" s="14"/>
       <c r="L72" s="42"/>
     </row>
-    <row r="73" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A73" s="14"/>
       <c r="B73" s="14"/>
       <c r="C73" s="15"/>
@@ -4400,7 +4377,7 @@
       <c r="K73" s="14"/>
       <c r="L73" s="42"/>
     </row>
-    <row r="74" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A74" s="14"/>
       <c r="B74" s="14"/>
       <c r="C74" s="15"/>
@@ -4414,7 +4391,7 @@
       <c r="K74" s="14"/>
       <c r="L74" s="42"/>
     </row>
-    <row r="75" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A75" s="14"/>
       <c r="B75" s="14"/>
       <c r="C75" s="15"/>
@@ -4428,7 +4405,7 @@
       <c r="K75" s="14"/>
       <c r="L75" s="42"/>
     </row>
-    <row r="76" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A76" s="14"/>
       <c r="B76" s="14"/>
       <c r="C76" s="15"/>
@@ -4442,7 +4419,7 @@
       <c r="K76" s="14"/>
       <c r="L76" s="42"/>
     </row>
-    <row r="77" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A77" s="14"/>
       <c r="B77" s="14"/>
       <c r="C77" s="15"/>
@@ -4456,7 +4433,7 @@
       <c r="K77" s="14"/>
       <c r="L77" s="42"/>
     </row>
-    <row r="78" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A78" s="14"/>
       <c r="B78" s="14"/>
       <c r="C78" s="15"/>
@@ -4470,7 +4447,7 @@
       <c r="K78" s="14"/>
       <c r="L78" s="42"/>
     </row>
-    <row r="79" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A79" s="14"/>
       <c r="B79" s="14"/>
       <c r="C79" s="15"/>
@@ -4484,7 +4461,7 @@
       <c r="K79" s="14"/>
       <c r="L79" s="42"/>
     </row>
-    <row r="80" spans="1:18" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:18" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A80" s="14"/>
       <c r="B80" s="14"/>
       <c r="C80" s="15"/>
@@ -4498,7 +4475,7 @@
       <c r="K80" s="14"/>
       <c r="L80" s="42"/>
     </row>
-    <row r="81" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A81" s="14"/>
       <c r="B81" s="14"/>
       <c r="C81" s="15"/>
@@ -4512,7 +4489,7 @@
       <c r="K81" s="14"/>
       <c r="L81" s="42"/>
     </row>
-    <row r="82" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A82" s="14"/>
       <c r="B82" s="14"/>
       <c r="C82" s="15"/>
@@ -4526,7 +4503,7 @@
       <c r="K82" s="14"/>
       <c r="L82" s="42"/>
     </row>
-    <row r="83" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A83" s="14"/>
       <c r="B83" s="14"/>
       <c r="C83" s="15"/>
@@ -4540,7 +4517,7 @@
       <c r="K83" s="14"/>
       <c r="L83" s="42"/>
     </row>
-    <row r="84" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A84" s="14"/>
       <c r="B84" s="14"/>
       <c r="C84" s="15"/>
@@ -4554,7 +4531,7 @@
       <c r="K84" s="14"/>
       <c r="L84" s="42"/>
     </row>
-    <row r="85" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A85" s="14"/>
       <c r="B85" s="14"/>
       <c r="C85" s="15"/>
@@ -4568,7 +4545,7 @@
       <c r="K85" s="14"/>
       <c r="L85" s="42"/>
     </row>
-    <row r="86" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A86" s="14"/>
       <c r="B86" s="14"/>
       <c r="C86" s="15"/>
@@ -4582,7 +4559,7 @@
       <c r="K86" s="14"/>
       <c r="L86" s="42"/>
     </row>
-    <row r="87" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A87" s="14"/>
       <c r="B87" s="14"/>
       <c r="C87" s="15"/>
@@ -4596,7 +4573,7 @@
       <c r="K87" s="14"/>
       <c r="L87" s="42"/>
     </row>
-    <row r="88" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A88" s="14"/>
       <c r="B88" s="14"/>
       <c r="C88" s="15"/>
@@ -4610,7 +4587,7 @@
       <c r="K88" s="14"/>
       <c r="L88" s="42"/>
     </row>
-    <row r="89" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A89" s="14"/>
       <c r="B89" s="14"/>
       <c r="C89" s="15"/>
@@ -4624,7 +4601,7 @@
       <c r="K89" s="14"/>
       <c r="L89" s="42"/>
     </row>
-    <row r="90" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A90" s="14"/>
       <c r="B90" s="14"/>
       <c r="C90" s="15"/>
@@ -4638,7 +4615,7 @@
       <c r="K90" s="14"/>
       <c r="L90" s="42"/>
     </row>
-    <row r="91" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A91" s="14"/>
       <c r="B91" s="14"/>
       <c r="C91" s="15"/>
@@ -4652,7 +4629,7 @@
       <c r="K91" s="14"/>
       <c r="L91" s="42"/>
     </row>
-    <row r="92" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A92" s="14"/>
       <c r="B92" s="14"/>
       <c r="C92" s="15"/>
@@ -4666,7 +4643,7 @@
       <c r="K92" s="14"/>
       <c r="L92" s="42"/>
     </row>
-    <row r="93" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A93" s="14"/>
       <c r="B93" s="14"/>
       <c r="C93" s="15"/>
@@ -4680,7 +4657,7 @@
       <c r="K93" s="14"/>
       <c r="L93" s="42"/>
     </row>
-    <row r="94" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A94" s="14"/>
       <c r="B94" s="14"/>
       <c r="C94" s="15"/>
@@ -4694,7 +4671,7 @@
       <c r="K94" s="14"/>
       <c r="L94" s="42"/>
     </row>
-    <row r="95" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A95" s="14"/>
       <c r="B95" s="14"/>
       <c r="C95" s="15"/>
@@ -4708,7 +4685,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="42"/>
     </row>
-    <row r="96" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A96" s="14"/>
       <c r="B96" s="14"/>
       <c r="C96" s="15"/>
@@ -4722,7 +4699,7 @@
       <c r="K96" s="14"/>
       <c r="L96" s="42"/>
     </row>
-    <row r="97" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A97" s="14"/>
       <c r="B97" s="14"/>
       <c r="C97" s="15"/>
@@ -4736,7 +4713,7 @@
       <c r="K97" s="14"/>
       <c r="L97" s="42"/>
     </row>
-    <row r="98" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A98" s="14"/>
       <c r="B98" s="14"/>
       <c r="C98" s="15"/>
@@ -4750,7 +4727,7 @@
       <c r="K98" s="14"/>
       <c r="L98" s="42"/>
     </row>
-    <row r="99" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A99" s="14"/>
       <c r="B99" s="14"/>
       <c r="C99" s="15"/>
@@ -4764,7 +4741,7 @@
       <c r="K99" s="14"/>
       <c r="L99" s="42"/>
     </row>
-    <row r="100" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A100" s="14"/>
       <c r="B100" s="14"/>
       <c r="C100" s="15"/>
@@ -4778,7 +4755,7 @@
       <c r="K100" s="14"/>
       <c r="L100" s="42"/>
     </row>
-    <row r="101" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A101" s="14"/>
       <c r="B101" s="14"/>
       <c r="C101" s="15"/>
@@ -4792,7 +4769,7 @@
       <c r="K101" s="14"/>
       <c r="L101" s="42"/>
     </row>
-    <row r="102" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A102" s="14"/>
       <c r="B102" s="14"/>
       <c r="C102" s="15"/>
@@ -4806,7 +4783,7 @@
       <c r="K102" s="14"/>
       <c r="L102" s="42"/>
     </row>
-    <row r="103" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A103" s="14"/>
       <c r="B103" s="14"/>
       <c r="C103" s="15"/>
@@ -4820,7 +4797,7 @@
       <c r="K103" s="14"/>
       <c r="L103" s="42"/>
     </row>
-    <row r="104" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A104" s="14"/>
       <c r="B104" s="14"/>
       <c r="C104" s="15"/>
@@ -4834,7 +4811,7 @@
       <c r="K104" s="14"/>
       <c r="L104" s="42"/>
     </row>
-    <row r="105" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="15"/>
@@ -4848,7 +4825,7 @@
       <c r="K105" s="14"/>
       <c r="L105" s="42"/>
     </row>
-    <row r="106" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A106" s="14"/>
       <c r="B106" s="14"/>
       <c r="C106" s="15"/>
@@ -4862,7 +4839,7 @@
       <c r="K106" s="14"/>
       <c r="L106" s="42"/>
     </row>
-    <row r="107" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A107" s="14"/>
       <c r="B107" s="14"/>
       <c r="C107" s="15"/>
@@ -4876,7 +4853,7 @@
       <c r="K107" s="14"/>
       <c r="L107" s="42"/>
     </row>
-    <row r="108" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A108" s="14"/>
       <c r="B108" s="14"/>
       <c r="C108" s="15"/>
@@ -4890,7 +4867,7 @@
       <c r="K108" s="14"/>
       <c r="L108" s="42"/>
     </row>
-    <row r="109" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A109" s="14"/>
       <c r="B109" s="14"/>
       <c r="C109" s="15"/>
@@ -4904,7 +4881,7 @@
       <c r="K109" s="14"/>
       <c r="L109" s="42"/>
     </row>
-    <row r="110" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A110" s="14"/>
       <c r="B110" s="14"/>
       <c r="C110" s="15"/>
@@ -4918,7 +4895,7 @@
       <c r="K110" s="14"/>
       <c r="L110" s="42"/>
     </row>
-    <row r="111" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A111" s="14"/>
       <c r="B111" s="14"/>
       <c r="C111" s="15"/>
@@ -4932,7 +4909,7 @@
       <c r="K111" s="14"/>
       <c r="L111" s="42"/>
     </row>
-    <row r="112" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A112" s="14"/>
       <c r="B112" s="14"/>
       <c r="C112" s="15"/>
@@ -4946,7 +4923,7 @@
       <c r="K112" s="14"/>
       <c r="L112" s="42"/>
     </row>
-    <row r="113" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A113" s="14"/>
       <c r="B113" s="14"/>
       <c r="C113" s="15"/>
@@ -4960,7 +4937,7 @@
       <c r="K113" s="14"/>
       <c r="L113" s="42"/>
     </row>
-    <row r="114" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A114" s="14"/>
       <c r="B114" s="14"/>
       <c r="C114" s="15"/>
@@ -4974,7 +4951,7 @@
       <c r="K114" s="14"/>
       <c r="L114" s="42"/>
     </row>
-    <row r="115" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A115" s="14"/>
       <c r="B115" s="14"/>
       <c r="C115" s="15"/>
@@ -4988,7 +4965,7 @@
       <c r="K115" s="14"/>
       <c r="L115" s="42"/>
     </row>
-    <row r="116" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A116" s="14"/>
       <c r="B116" s="14"/>
       <c r="C116" s="15"/>
@@ -5002,7 +4979,7 @@
       <c r="K116" s="14"/>
       <c r="L116" s="42"/>
     </row>
-    <row r="117" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A117" s="14"/>
       <c r="B117" s="14"/>
       <c r="C117" s="15"/>
@@ -5016,7 +4993,7 @@
       <c r="K117" s="14"/>
       <c r="L117" s="42"/>
     </row>
-    <row r="118" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A118" s="14"/>
       <c r="B118" s="14"/>
       <c r="C118" s="15"/>
@@ -5030,7 +5007,7 @@
       <c r="K118" s="14"/>
       <c r="L118" s="42"/>
     </row>
-    <row r="119" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A119" s="14"/>
       <c r="B119" s="14"/>
       <c r="C119" s="15"/>
@@ -5044,7 +5021,7 @@
       <c r="K119" s="14"/>
       <c r="L119" s="42"/>
     </row>
-    <row r="120" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A120" s="14"/>
       <c r="B120" s="14"/>
       <c r="C120" s="15"/>
@@ -5058,7 +5035,7 @@
       <c r="K120" s="14"/>
       <c r="L120" s="42"/>
     </row>
-    <row r="121" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A121" s="14"/>
       <c r="B121" s="14"/>
       <c r="C121" s="15"/>
@@ -5072,7 +5049,7 @@
       <c r="K121" s="14"/>
       <c r="L121" s="42"/>
     </row>
-    <row r="122" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A122" s="14"/>
       <c r="B122" s="14"/>
       <c r="C122" s="15"/>
@@ -5086,7 +5063,7 @@
       <c r="K122" s="14"/>
       <c r="L122" s="42"/>
     </row>
-    <row r="123" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A123" s="14"/>
       <c r="B123" s="14"/>
       <c r="C123" s="15"/>
@@ -5100,7 +5077,7 @@
       <c r="K123" s="14"/>
       <c r="L123" s="42"/>
     </row>
-    <row r="124" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A124" s="14"/>
       <c r="B124" s="14"/>
       <c r="C124" s="15"/>
@@ -5114,7 +5091,7 @@
       <c r="K124" s="14"/>
       <c r="L124" s="42"/>
     </row>
-    <row r="125" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A125" s="14"/>
       <c r="B125" s="14"/>
       <c r="C125" s="15"/>
@@ -5128,7 +5105,7 @@
       <c r="K125" s="14"/>
       <c r="L125" s="42"/>
     </row>
-    <row r="126" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A126" s="14"/>
       <c r="B126" s="14"/>
       <c r="C126" s="15"/>
@@ -5142,7 +5119,7 @@
       <c r="K126" s="14"/>
       <c r="L126" s="42"/>
     </row>
-    <row r="127" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A127" s="14"/>
       <c r="B127" s="14"/>
       <c r="C127" s="15"/>
@@ -5156,7 +5133,7 @@
       <c r="K127" s="14"/>
       <c r="L127" s="42"/>
     </row>
-    <row r="128" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A128" s="14"/>
       <c r="B128" s="14"/>
       <c r="C128" s="15"/>
@@ -5170,7 +5147,7 @@
       <c r="K128" s="14"/>
       <c r="L128" s="42"/>
     </row>
-    <row r="129" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A129" s="14"/>
       <c r="B129" s="14"/>
       <c r="C129" s="15"/>
@@ -5184,7 +5161,7 @@
       <c r="K129" s="14"/>
       <c r="L129" s="42"/>
     </row>
-    <row r="130" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A130" s="14"/>
       <c r="B130" s="14"/>
       <c r="C130" s="15"/>
@@ -5198,7 +5175,7 @@
       <c r="K130" s="14"/>
       <c r="L130" s="42"/>
     </row>
-    <row r="131" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A131" s="14"/>
       <c r="B131" s="14"/>
       <c r="C131" s="15"/>
@@ -5212,7 +5189,7 @@
       <c r="K131" s="14"/>
       <c r="L131" s="42"/>
     </row>
-    <row r="132" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A132" s="14"/>
       <c r="B132" s="14"/>
       <c r="C132" s="15"/>
@@ -5226,7 +5203,7 @@
       <c r="K132" s="14"/>
       <c r="L132" s="42"/>
     </row>
-    <row r="133" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A133" s="14"/>
       <c r="B133" s="14"/>
       <c r="C133" s="15"/>
@@ -5240,7 +5217,7 @@
       <c r="K133" s="14"/>
       <c r="L133" s="42"/>
     </row>
-    <row r="134" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A134" s="14"/>
       <c r="B134" s="14"/>
       <c r="C134" s="15"/>
@@ -5254,7 +5231,7 @@
       <c r="K134" s="14"/>
       <c r="L134" s="42"/>
     </row>
-    <row r="135" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A135" s="14"/>
       <c r="B135" s="14"/>
       <c r="C135" s="15"/>
@@ -5268,7 +5245,7 @@
       <c r="K135" s="14"/>
       <c r="L135" s="42"/>
     </row>
-    <row r="136" spans="1:12" s="29" customFormat="1" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" s="29" customFormat="1" ht="25.15" customHeight="1">
       <c r="A136" s="14"/>
       <c r="B136" s="14"/>
       <c r="C136" s="15"/>
@@ -5293,14 +5270,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
